--- a/testsetbak.xlsx
+++ b/testsetbak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96178AE7-EA13-445A-858C-CAB557A82818}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF281521-1DCE-4486-A4C6-12B4C8435120}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t>settings_11</t>
   </si>
   <si>
-    <t>setting_x3x1</t>
-  </si>
-  <si>
     <t>settings_x4x2</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
   </si>
   <si>
     <t>web_ui</t>
+  </si>
+  <si>
+    <t>settings_x3x1</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,72 +556,72 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
@@ -646,22 +646,22 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/testsetbak.xlsx
+++ b/testsetbak.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF281521-1DCE-4486-A4C6-12B4C8435120}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C9A406-F024-417F-8680-99FBA5A397A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="18216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>TestName</t>
   </si>
@@ -137,18 +137,55 @@
   </si>
   <si>
     <t>settings_x3x1</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>background_custom</t>
+  </si>
+  <si>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t>exit_settings</t>
+  </si>
+  <si>
+    <t>import_export</t>
+  </si>
+  <si>
+    <t>kiosk_admin</t>
+  </si>
+  <si>
+    <t>kiosk_newuser</t>
+  </si>
+  <si>
+    <t>task_modify_sound_key</t>
+  </si>
+  <si>
+    <t>task_modify_sound_mouse</t>
+  </si>
+  <si>
+    <t>task_sound_readonly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -169,15 +206,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A66F78BF-84E9-455E-B477-A96133610068}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,13 +495,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
@@ -470,7 +510,7 @@
     <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,190 +518,240 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/testsetbak.xlsx
+++ b/testsetbak.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C9A406-F024-417F-8680-99FBA5A397A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48A4C3D-863F-4276-8D0B-63095350B3A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="18216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>TestName</t>
   </si>
@@ -139,12 +139,6 @@
     <t>settings_x3x1</t>
   </si>
   <si>
-    <t>background</t>
-  </si>
-  <si>
-    <t>background_custom</t>
-  </si>
-  <si>
     <t>copyright</t>
   </si>
   <si>
@@ -167,6 +161,33 @@
   </si>
   <si>
     <t>task_sound_readonly</t>
+  </si>
+  <si>
+    <t>settings_background</t>
+  </si>
+  <si>
+    <t>settings_theme</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>wifi_hidden_ssid</t>
+  </si>
+  <si>
+    <t>wifi_modify_icon</t>
+  </si>
+  <si>
+    <t>wifi_modify_settings</t>
+  </si>
+  <si>
+    <t>wifi_readonly</t>
+  </si>
+  <si>
+    <t>wifi_wpap</t>
+  </si>
+  <si>
+    <t>app_launch</t>
   </si>
 </sst>
 </file>
@@ -495,19 +516,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.109375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -566,192 +587,255 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="2" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="2" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="2" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="2" t="s">
+      <c r="B47" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="2" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="2" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="2" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="2" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="2" t="s">
-        <v>48</v>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
